--- a/IMS_dataset_info/Bearing Data.xlsx
+++ b/IMS_dataset_info/Bearing Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\Documents\ProjetoFinal_LeonardoPacheco_UFRJ_LAVI\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\Documents\ProjetoFinal_LeonardoPacheco_UFRJ_LAVI\IMS_dataset_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BBC63A-594F-43DF-877C-C9548E8AC313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3EF6FC-34EE-4D61-88CF-6BFCB48CFDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6029DD43-C30C-496B-AA54-76A2DAF24197}"/>
+    <workbookView xWindow="-8628" yWindow="3036" windowWidth="17280" windowHeight="8964" xr2:uid="{6029DD43-C30C-496B-AA54-76A2DAF24197}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>A</t>
   </si>
@@ -102,6 +102,27 @@
   </si>
   <si>
     <t>numero de esferas</t>
+  </si>
+  <si>
+    <t>Freq Geometria</t>
+  </si>
+  <si>
+    <t>Freq Catalogo</t>
+  </si>
+  <si>
+    <t>Gaiola</t>
+  </si>
+  <si>
+    <t>Inner</t>
+  </si>
+  <si>
+    <t>Outer</t>
+  </si>
+  <si>
+    <t>Rolo</t>
+  </si>
+  <si>
+    <t>Razão</t>
   </si>
 </sst>
 </file>
@@ -598,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A8EA43-E257-4BB5-9B91-7D4438528F3A}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="108" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -609,10 +630,10 @@
     <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -633,7 +654,7 @@
         <v>11.175999999999998</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -656,7 +677,7 @@
         <v>58.673999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -678,7 +699,7 @@
         <v>81.025999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -700,7 +721,7 @@
         <v>69.849999999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -715,7 +736,7 @@
         <v>38.862000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -734,7 +755,7 @@
         <v>219.44024685324703</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -753,7 +774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -765,7 +786,7 @@
         <v>69.849999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -777,7 +798,7 @@
         <v>58.673999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -789,8 +810,77 @@
         <v>0.24434609527920614</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="J14" s="2"/>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15">
+        <v>14.079000000000001</v>
+      </c>
+      <c r="K15">
+        <v>0.24</v>
+      </c>
+      <c r="L15">
+        <f>J15/K15</f>
+        <v>58.662500000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16">
+        <v>346.57</v>
+      </c>
+      <c r="K16">
+        <v>5.39</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ref="L16:L18" si="1">J16/K16</f>
+        <v>64.298701298701303</v>
+      </c>
+    </row>
+    <row r="17" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17">
+        <v>253.42500000000001</v>
+      </c>
+      <c r="K17">
+        <v>4.0566000000000004</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>62.472267416062707</v>
+      </c>
+    </row>
+    <row r="18" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18">
+        <v>203.31</v>
+      </c>
+      <c r="K18">
+        <f>1.86333*2</f>
+        <v>3.7266599999999999</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>54.555553766643591</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
